--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -197,7 +197,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm\/dd\/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>UserName</t>
   </si>
@@ -190,6 +190,48 @@
   </si>
   <si>
     <t>Full Coverage</t>
+  </si>
+  <si>
+    <t>First Name Invalid Entry</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>test*()</t>
+  </si>
+  <si>
+    <t>First Name Valid Entry</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>firstNameTest</t>
+  </si>
+  <si>
+    <t>2341aa</t>
+  </si>
+  <si>
+    <t>Occupation Options</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Public Official</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Selfemployed</t>
   </si>
 </sst>
 </file>
@@ -240,13 +282,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,14 +891,87 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="2" customFormat="1">
+      <c r="A43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
